--- a/src/assets/excel/student_verification.xlsx
+++ b/src/assets/excel/student_verification.xlsx
@@ -1,91 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragagarwal/Desktop/mymor Events/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B1E63E-170E-DA4C-A074-DB0E012AD776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleaning Schedule" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Student Verification" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Student Email</t>
-  </si>
-  <si>
-    <t>Chirag Agarwal</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>student@student.uni.edu.au</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00111827"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,30 +68,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,175 +450,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col width="22" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" bestFit="1" customWidth="1" min="8" max="9"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Student Email</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="n"/>
+      <c r="I1" s="4" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>24449741</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="1"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chirag Agarwal</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>student@student.uni.edu.au</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D58C62B0-F9BE-0F4C-9A88-1F6D8C9AAE2C}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
